--- a/entrega/planillas/OCL_lempel-ziv.xlsx
+++ b/entrega/planillas/OCL_lempel-ziv.xlsx
@@ -23850,7 +23850,7 @@
         <v>1.408041697691735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.222</v>
+        <v>0.232</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
